--- a/dc3/DC3_resgistro.xlsx
+++ b/dc3/DC3_resgistro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecamp\Devs\Python_Tools\dc3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0F7519-59C7-41A8-80A9-84723D79A7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E94589-7385-4BB0-8034-834334680CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5415" windowWidth="29040" windowHeight="15720" xr2:uid="{36304A1A-E873-48FD-9F7E-DE031C294803}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36304A1A-E873-48FD-9F7E-DE031C294803}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="191">
   <si>
     <t>Nombre</t>
   </si>
@@ -467,159 +467,6 @@
     <t>AUXILIAR ADMINISTRATIVO CICE</t>
   </si>
   <si>
-    <t>Corporativo Tajin</t>
-  </si>
-  <si>
-    <t>Planta Productos Tajin</t>
-  </si>
-  <si>
-    <t>Planta de Productos Tajin</t>
-  </si>
-  <si>
-    <t>CEDIS</t>
-  </si>
-  <si>
-    <t>CAPSICUM</t>
-  </si>
-  <si>
-    <t>CICE</t>
-  </si>
-  <si>
-    <t>Empleado</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0013</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0014</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0015</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0016</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0017</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0018</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0019</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0020</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0021</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0022</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0023</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0024</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0025</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0026</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0027</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0028</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0029</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0030</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0031</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0032</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0033</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0034</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0035</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0036</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0037</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0038</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0039</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0040</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0041</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0042</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0043</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0044</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0045</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0046</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0047</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0048</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0049</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0050</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0051</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0052</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0053</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0054</t>
-  </si>
-  <si>
-    <t>Grupo Syner de México, S.A. de C.V. Registro STyPS No. GSM-050616-MH2-0055</t>
-  </si>
-  <si>
-    <t>Atención Plena – Mindfulness</t>
-  </si>
-  <si>
     <t>Elisa Garduño</t>
   </si>
   <si>
@@ -753,13 +600,22 @@
   </si>
   <si>
     <t>patron43</t>
+  </si>
+  <si>
+    <t>ATENCIÓN PLENA – MINDFULNESS</t>
+  </si>
+  <si>
+    <t>GRUPO SYNER DE MÉXICO, S.A. DE C.V. REGISTRO STYPS NO. GSM-050616-MH2-0013</t>
+  </si>
+  <si>
+    <t>CENTRO DE INVESTIGACION Y CAMPO EXPERIMENTAL TAJIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,14 +625,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -802,11 +650,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B71EBD-EE09-47C1-8DE4-B97C7620CDF2}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,11 +998,13 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="7" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" customWidth="1"/>
+    <col min="5" max="5" width="89" customWidth="1"/>
+    <col min="6" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="10" width="20.28515625" customWidth="1"/>
     <col min="11" max="12" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1213,8 +1061,8 @@
       <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
-        <v>149</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>107</v>
@@ -1226,7 +1074,7 @@
         <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1241,16 +1089,16 @@
         <v>7000</v>
       </c>
       <c r="L2" t="s">
-        <v>150</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M2" t="s">
+        <v>143</v>
       </c>
       <c r="N2" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="O2" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1260,8 +1108,8 @@
       <c r="B3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
-        <v>149</v>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>108</v>
@@ -1273,7 +1121,7 @@
         <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -1288,16 +1136,16 @@
         <v>7000</v>
       </c>
       <c r="L3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M3" t="s">
+        <v>143</v>
       </c>
       <c r="N3" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="O3" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1307,8 +1155,8 @@
       <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
-        <v>149</v>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1320,7 +1168,7 @@
         <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -1335,16 +1183,16 @@
         <v>7000</v>
       </c>
       <c r="L4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M4" t="s">
+        <v>143</v>
       </c>
       <c r="N4" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="O4" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1354,8 +1202,8 @@
       <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" t="s">
-        <v>149</v>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>109</v>
@@ -1367,7 +1215,7 @@
         <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1382,16 +1230,16 @@
         <v>7000</v>
       </c>
       <c r="L5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M5" t="s">
+        <v>143</v>
       </c>
       <c r="N5" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="O5" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1401,8 +1249,8 @@
       <c r="B6" t="s">
         <v>81</v>
       </c>
-      <c r="C6" t="s">
-        <v>149</v>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1414,7 +1262,7 @@
         <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -1429,16 +1277,16 @@
         <v>7000</v>
       </c>
       <c r="L6" t="s">
-        <v>154</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M6" t="s">
+        <v>143</v>
       </c>
       <c r="N6" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="O6" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1448,8 +1296,8 @@
       <c r="B7" t="s">
         <v>92</v>
       </c>
-      <c r="C7" t="s">
-        <v>149</v>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>109</v>
@@ -1461,7 +1309,7 @@
         <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1476,16 +1324,16 @@
         <v>7000</v>
       </c>
       <c r="L7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M7" t="s">
+        <v>143</v>
       </c>
       <c r="N7" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="O7" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1495,8 +1343,8 @@
       <c r="B8" t="s">
         <v>98</v>
       </c>
-      <c r="C8" t="s">
-        <v>149</v>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>109</v>
@@ -1508,7 +1356,7 @@
         <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1523,16 +1371,16 @@
         <v>7000</v>
       </c>
       <c r="L8" t="s">
-        <v>156</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M8" t="s">
+        <v>143</v>
       </c>
       <c r="N8" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="O8" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1542,8 +1390,8 @@
       <c r="B9" t="s">
         <v>99</v>
       </c>
-      <c r="C9" t="s">
-        <v>149</v>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>109</v>
@@ -1555,7 +1403,7 @@
         <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1570,16 +1418,16 @@
         <v>7000</v>
       </c>
       <c r="L9" t="s">
-        <v>157</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M9" t="s">
+        <v>143</v>
       </c>
       <c r="N9" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="O9" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1589,20 +1437,20 @@
       <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
-        <v>149</v>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
         <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1617,16 +1465,16 @@
         <v>7000</v>
       </c>
       <c r="L10" t="s">
-        <v>158</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M10" t="s">
+        <v>143</v>
       </c>
       <c r="N10" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="O10" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1636,20 +1484,20 @@
       <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s">
-        <v>149</v>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
         <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1664,16 +1512,16 @@
         <v>7000</v>
       </c>
       <c r="L11" t="s">
-        <v>159</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M11" t="s">
+        <v>143</v>
       </c>
       <c r="N11" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="O11" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1683,20 +1531,20 @@
       <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
-        <v>149</v>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1711,16 +1559,16 @@
         <v>7000</v>
       </c>
       <c r="L12" t="s">
-        <v>160</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M12" t="s">
+        <v>143</v>
       </c>
       <c r="N12" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1730,20 +1578,20 @@
       <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
-        <v>149</v>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
         <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1758,16 +1606,16 @@
         <v>7000</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M13" t="s">
+        <v>143</v>
       </c>
       <c r="N13" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="O13" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1777,20 +1625,20 @@
       <c r="B14" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
-        <v>149</v>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
         <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1805,16 +1653,16 @@
         <v>7000</v>
       </c>
       <c r="L14" t="s">
-        <v>162</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M14" t="s">
+        <v>143</v>
       </c>
       <c r="N14" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1824,20 +1672,20 @@
       <c r="B15" t="s">
         <v>68</v>
       </c>
-      <c r="C15" t="s">
-        <v>149</v>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
         <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1852,16 +1700,16 @@
         <v>7000</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M15" t="s">
+        <v>143</v>
       </c>
       <c r="N15" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1871,20 +1719,20 @@
       <c r="B16" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
-        <v>149</v>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -1899,16 +1747,16 @@
         <v>7000</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M16" t="s">
+        <v>143</v>
       </c>
       <c r="N16" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1918,20 +1766,20 @@
       <c r="B17" t="s">
         <v>70</v>
       </c>
-      <c r="C17" t="s">
-        <v>149</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>193</v>
+      <c r="G17" t="s">
+        <v>188</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -1946,16 +1794,16 @@
         <v>7000</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M17" t="s">
+        <v>143</v>
       </c>
       <c r="N17" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1965,20 +1813,20 @@
       <c r="B18" t="s">
         <v>71</v>
       </c>
-      <c r="C18" t="s">
-        <v>149</v>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -1993,16 +1841,16 @@
         <v>7000</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M18" t="s">
+        <v>143</v>
       </c>
       <c r="N18" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2012,20 +1860,20 @@
       <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="C19" t="s">
-        <v>149</v>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
         <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2040,16 +1888,16 @@
         <v>7000</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M19" t="s">
+        <v>143</v>
       </c>
       <c r="N19" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="O19" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2059,20 +1907,20 @@
       <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
-        <v>149</v>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
         <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -2087,16 +1935,16 @@
         <v>7000</v>
       </c>
       <c r="L20" t="s">
-        <v>168</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M20" t="s">
+        <v>143</v>
       </c>
       <c r="N20" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2106,20 +1954,20 @@
       <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
-        <v>149</v>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
         <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -2134,16 +1982,16 @@
         <v>7000</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M21" t="s">
+        <v>143</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="O21" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2153,20 +2001,20 @@
       <c r="B22" t="s">
         <v>75</v>
       </c>
-      <c r="C22" t="s">
-        <v>149</v>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
         <v>104</v>
       </c>
       <c r="G22" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H22">
         <v>4</v>
@@ -2181,16 +2029,16 @@
         <v>7000</v>
       </c>
       <c r="L22" t="s">
-        <v>170</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M22" t="s">
+        <v>143</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="O22" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2200,20 +2048,20 @@
       <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="C23" t="s">
-        <v>149</v>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
         <v>104</v>
       </c>
       <c r="G23" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -2228,16 +2076,16 @@
         <v>7000</v>
       </c>
       <c r="L23" t="s">
-        <v>171</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M23" t="s">
+        <v>143</v>
       </c>
       <c r="N23" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="O23" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2247,20 +2095,20 @@
       <c r="B24" t="s">
         <v>78</v>
       </c>
-      <c r="C24" t="s">
-        <v>149</v>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
         <v>104</v>
       </c>
       <c r="G24" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2275,16 +2123,16 @@
         <v>7000</v>
       </c>
       <c r="L24" t="s">
-        <v>172</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M24" t="s">
+        <v>143</v>
       </c>
       <c r="N24" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O24" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2294,20 +2142,20 @@
       <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="C25" t="s">
-        <v>149</v>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
         <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2322,16 +2170,16 @@
         <v>7000</v>
       </c>
       <c r="L25" t="s">
-        <v>173</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M25" t="s">
+        <v>143</v>
       </c>
       <c r="N25" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="O25" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2341,20 +2189,20 @@
       <c r="B26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" t="s">
-        <v>149</v>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
         <v>104</v>
       </c>
       <c r="G26" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2369,16 +2217,16 @@
         <v>7000</v>
       </c>
       <c r="L26" t="s">
-        <v>174</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M26" t="s">
+        <v>143</v>
       </c>
       <c r="N26" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="O26" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2388,20 +2236,20 @@
       <c r="B27" t="s">
         <v>82</v>
       </c>
-      <c r="C27" t="s">
-        <v>149</v>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
         <v>104</v>
       </c>
       <c r="G27" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -2416,16 +2264,16 @@
         <v>7000</v>
       </c>
       <c r="L27" t="s">
-        <v>175</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M27" t="s">
+        <v>143</v>
       </c>
       <c r="N27" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="O27" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2435,20 +2283,20 @@
       <c r="B28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" t="s">
-        <v>149</v>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
         <v>104</v>
       </c>
       <c r="G28" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -2463,16 +2311,16 @@
         <v>7000</v>
       </c>
       <c r="L28" t="s">
-        <v>176</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M28" t="s">
+        <v>143</v>
       </c>
       <c r="N28" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="O28" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2482,20 +2330,20 @@
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" t="s">
-        <v>149</v>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
         <v>104</v>
       </c>
       <c r="G29" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -2510,16 +2358,16 @@
         <v>7000</v>
       </c>
       <c r="L29" t="s">
-        <v>177</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M29" t="s">
+        <v>143</v>
       </c>
       <c r="N29" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="O29" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2529,20 +2377,20 @@
       <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="C30" t="s">
-        <v>149</v>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
         <v>104</v>
       </c>
       <c r="G30" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -2557,16 +2405,16 @@
         <v>7000</v>
       </c>
       <c r="L30" t="s">
-        <v>178</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M30" t="s">
+        <v>143</v>
       </c>
       <c r="N30" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="O30" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2576,20 +2424,20 @@
       <c r="B31" t="s">
         <v>86</v>
       </c>
-      <c r="C31" t="s">
-        <v>149</v>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
         <v>104</v>
       </c>
       <c r="G31" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H31">
         <v>4</v>
@@ -2604,16 +2452,16 @@
         <v>7000</v>
       </c>
       <c r="L31" t="s">
-        <v>179</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M31" t="s">
+        <v>143</v>
       </c>
       <c r="N31" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="O31" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2623,20 +2471,20 @@
       <c r="B32" t="s">
         <v>87</v>
       </c>
-      <c r="C32" t="s">
-        <v>149</v>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
         <v>104</v>
       </c>
       <c r="G32" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -2651,16 +2499,16 @@
         <v>7000</v>
       </c>
       <c r="L32" t="s">
-        <v>180</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M32" t="s">
+        <v>143</v>
       </c>
       <c r="N32" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="O32" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2670,20 +2518,20 @@
       <c r="B33" t="s">
         <v>88</v>
       </c>
-      <c r="C33" t="s">
-        <v>149</v>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
         <v>104</v>
       </c>
       <c r="G33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H33">
         <v>4</v>
@@ -2698,16 +2546,16 @@
         <v>7000</v>
       </c>
       <c r="L33" t="s">
-        <v>181</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M33" t="s">
+        <v>143</v>
       </c>
       <c r="N33" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="O33" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2717,20 +2565,20 @@
       <c r="B34" t="s">
         <v>89</v>
       </c>
-      <c r="C34" t="s">
-        <v>149</v>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
         <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -2745,16 +2593,16 @@
         <v>7000</v>
       </c>
       <c r="L34" t="s">
-        <v>182</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M34" t="s">
+        <v>143</v>
       </c>
       <c r="N34" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="O34" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2764,20 +2612,20 @@
       <c r="B35" t="s">
         <v>90</v>
       </c>
-      <c r="C35" t="s">
-        <v>149</v>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F35" t="s">
         <v>104</v>
       </c>
       <c r="G35" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -2792,16 +2640,16 @@
         <v>7000</v>
       </c>
       <c r="L35" t="s">
-        <v>183</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M35" t="s">
+        <v>143</v>
       </c>
       <c r="N35" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="O35" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2811,20 +2659,20 @@
       <c r="B36" t="s">
         <v>91</v>
       </c>
-      <c r="C36" t="s">
-        <v>149</v>
+      <c r="C36">
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="F36" t="s">
         <v>104</v>
       </c>
       <c r="G36" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H36">
         <v>4</v>
@@ -2838,17 +2686,17 @@
       <c r="K36">
         <v>7000</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>194</v>
+      <c r="L36" t="s">
+        <v>189</v>
+      </c>
+      <c r="M36" t="s">
+        <v>143</v>
       </c>
       <c r="N36" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="O36" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2858,20 +2706,20 @@
       <c r="B37" t="s">
         <v>93</v>
       </c>
-      <c r="C37" t="s">
-        <v>149</v>
+      <c r="C37">
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
         <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H37">
         <v>4</v>
@@ -2886,16 +2734,16 @@
         <v>7000</v>
       </c>
       <c r="L37" t="s">
-        <v>185</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M37" t="s">
+        <v>143</v>
       </c>
       <c r="N37" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="O37" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2905,20 +2753,20 @@
       <c r="B38" t="s">
         <v>94</v>
       </c>
-      <c r="C38" t="s">
-        <v>149</v>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F38" t="s">
         <v>104</v>
       </c>
       <c r="G38" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H38">
         <v>4</v>
@@ -2933,16 +2781,16 @@
         <v>7000</v>
       </c>
       <c r="L38" t="s">
-        <v>186</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M38" t="s">
+        <v>143</v>
       </c>
       <c r="N38" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="O38" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2952,20 +2800,20 @@
       <c r="B39" t="s">
         <v>95</v>
       </c>
-      <c r="C39" t="s">
-        <v>149</v>
+      <c r="C39">
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>137</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
         <v>104</v>
       </c>
       <c r="G39" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H39">
         <v>4</v>
@@ -2980,16 +2828,16 @@
         <v>7000</v>
       </c>
       <c r="L39" t="s">
-        <v>187</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M39" t="s">
+        <v>143</v>
       </c>
       <c r="N39" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="O39" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2999,20 +2847,20 @@
       <c r="B40" t="s">
         <v>96</v>
       </c>
-      <c r="C40" t="s">
-        <v>149</v>
+      <c r="C40">
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F40" t="s">
         <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -3027,16 +2875,16 @@
         <v>7000</v>
       </c>
       <c r="L40" t="s">
-        <v>188</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M40" t="s">
+        <v>143</v>
       </c>
       <c r="N40" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="O40" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3046,20 +2894,20 @@
       <c r="B41" t="s">
         <v>97</v>
       </c>
-      <c r="C41" t="s">
-        <v>149</v>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>139</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F41" t="s">
         <v>104</v>
       </c>
       <c r="G41" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -3076,14 +2924,14 @@
       <c r="L41" t="s">
         <v>189</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>194</v>
+      <c r="M41" t="s">
+        <v>143</v>
       </c>
       <c r="N41" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="O41" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3093,20 +2941,20 @@
       <c r="B42" t="s">
         <v>100</v>
       </c>
-      <c r="C42" t="s">
-        <v>149</v>
+      <c r="C42">
+        <v>0</v>
       </c>
       <c r="D42" t="s">
         <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="F42" t="s">
         <v>105</v>
       </c>
       <c r="G42" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H42">
         <v>4</v>
@@ -3121,16 +2969,16 @@
         <v>7000</v>
       </c>
       <c r="L42" t="s">
-        <v>190</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M42" t="s">
+        <v>143</v>
       </c>
       <c r="N42" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="O42" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3140,20 +2988,20 @@
       <c r="B43" t="s">
         <v>101</v>
       </c>
-      <c r="C43" t="s">
-        <v>149</v>
+      <c r="C43">
+        <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F43" t="s">
         <v>106</v>
       </c>
       <c r="G43" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -3168,16 +3016,16 @@
         <v>7000</v>
       </c>
       <c r="L43" t="s">
-        <v>191</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M43" t="s">
+        <v>143</v>
       </c>
       <c r="N43" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="O43" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3187,20 +3035,20 @@
       <c r="B44" t="s">
         <v>102</v>
       </c>
-      <c r="C44" t="s">
-        <v>149</v>
+      <c r="C44">
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>142</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F44" t="s">
         <v>106</v>
       </c>
       <c r="G44" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -3215,20 +3063,21 @@
         <v>7000</v>
       </c>
       <c r="L44" t="s">
-        <v>192</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="M44" t="s">
+        <v>143</v>
       </c>
       <c r="N44" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="O44" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dc3/DC3_resgistro.xlsx
+++ b/dc3/DC3_resgistro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecamp\Devs\Python_Tools-main\dc3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Devs\Python_Tools\dc3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97BDE89-D36A-4B21-872B-C825FF2E4879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764EE638-ED87-44B2-8798-9B33D3175329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{36304A1A-E873-48FD-9F7E-DE031C294803}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{36304A1A-E873-48FD-9F7E-DE031C294803}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="65">
   <si>
     <t>Nombre</t>
   </si>
@@ -92,196 +92,145 @@
     <t>PRODUCTOS TAJIN S.A. DE C.V.</t>
   </si>
   <si>
-    <t>RODRIGUEZ MARTINEZ ROBERTO</t>
-  </si>
-  <si>
     <t>ROMR-660920-DQ7-0005</t>
   </si>
   <si>
-    <t>JOSE JUAN MARTINEZ GALVAN</t>
-  </si>
-  <si>
-    <t>MAGJ710308HJCRLN03</t>
-  </si>
-  <si>
-    <t>SUPERVISOR DE PRODUCCION CAPSICUM</t>
-  </si>
-  <si>
-    <t>CAPSICUM SABORES DE MEXICO S.A. DE C.V.</t>
-  </si>
-  <si>
-    <t>CSM191211QD6</t>
-  </si>
-  <si>
-    <t>ATENCION PLENA Y MANEJO DEL ESTRES - MINDFULNESS</t>
-  </si>
-  <si>
-    <t>CARLO EZEQUIEL VALDEZ CARMONA</t>
-  </si>
-  <si>
-    <t>VACC941121HJCLRR00</t>
-  </si>
-  <si>
-    <t>CESAR JOEL ADAME MACIAS</t>
-  </si>
-  <si>
-    <t>AAMC890824HMNDCS07</t>
-  </si>
-  <si>
-    <t>JEFE DE SEGURIDAD INDUSTRIAL E HIGIENE</t>
-  </si>
-  <si>
-    <t>ALVARO ENRIQUE VILLALOBOS CORONA</t>
-  </si>
-  <si>
-    <t>VICA851224HJCLRL08</t>
-  </si>
-  <si>
-    <t>JEFE DE ALMACEN CAPSICUM</t>
-  </si>
-  <si>
-    <t>FERNANDO ANTONIO MEZA MORALES</t>
-  </si>
-  <si>
-    <t>MEMF901023HJCZRR07</t>
-  </si>
-  <si>
-    <t>GERENTE DE ADMINISTRACION</t>
-  </si>
-  <si>
-    <t>MANUEL EDUARDO GARCIA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>GARM800814HJCRDN06</t>
-  </si>
-  <si>
-    <t>GERENTE DE OPERACIONES CAPSICUM</t>
-  </si>
-  <si>
-    <t>MARIA DEL REFUGIO REGALADO PULIDO</t>
-  </si>
-  <si>
-    <t>REPR780926MJCGLF07</t>
-  </si>
-  <si>
-    <t>GERENTE DE CALIDAD</t>
-  </si>
-  <si>
-    <t>JESUS HERNANDEZ CHAVEZ</t>
-  </si>
-  <si>
-    <t>HECJ951223HMNRHS04</t>
-  </si>
-  <si>
-    <t>JEFE DE RECURSOS HUMANOS</t>
-  </si>
-  <si>
-    <t>BLANCA ABIGAIL ULLOA AVILA</t>
-  </si>
-  <si>
-    <t>UOAB981106MJCLVL08</t>
-  </si>
-  <si>
-    <t>ADMINISTRADOR DE MANTENIMIENTO</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO RAMIREZ MONTES</t>
-  </si>
-  <si>
-    <t>RAMM970214HJCMNR02</t>
-  </si>
-  <si>
-    <t>CAPTURISTA DE PRODUCCIÓN CAPSICUM</t>
-  </si>
-  <si>
-    <t>OWEN SAUL SOSA FERNANDEZ</t>
-  </si>
-  <si>
-    <t>SOFO940810HJCSRW05</t>
-  </si>
-  <si>
-    <t>CAPTURISTA DE ALMACÉN CAPSICUM</t>
-  </si>
-  <si>
-    <t>ELIAS GANDARA LUNA</t>
-  </si>
-  <si>
-    <t>GALE041108HBCNNLA4</t>
-  </si>
-  <si>
-    <t>OPERADOR B CAPSICUM</t>
-  </si>
-  <si>
-    <t>SERGIO ANTONIO ARIAS NOVOA</t>
-  </si>
-  <si>
-    <t>AINS680119HJCRVR08</t>
-  </si>
-  <si>
-    <t>DIRECTOR DE ADMINISTRACION Y FINANZAS</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL RAMIREZ NORIEGA</t>
-  </si>
-  <si>
-    <t>RANV831010HJCMRC06</t>
-  </si>
-  <si>
-    <t>DIRECTOR DE OPERACIONES</t>
-  </si>
-  <si>
-    <t>JOSE EMILIO REYES CUERVO</t>
-  </si>
-  <si>
-    <t>RECE750319HTSYRM06</t>
-  </si>
-  <si>
-    <t>DIRECTOR DE VENTAS MÉXICO-LATAM</t>
-  </si>
-  <si>
-    <t>JUAN MANUEL ALVAREZ HERNANDEZ</t>
-  </si>
-  <si>
-    <t>AAHJ760916HJCLRN07</t>
-  </si>
-  <si>
-    <t>DIRECTOR DE RECURSOS HUMANOS</t>
-  </si>
-  <si>
-    <t>JUAN FRANCISCO DIAZ SIERRA</t>
-  </si>
-  <si>
-    <t>DISJ750513HJCZRN04</t>
-  </si>
-  <si>
-    <t>DIRECTOR DE FINANZAS</t>
-  </si>
-  <si>
-    <t>ERICK ALEJANDRO CAMACHO MARTINEZ</t>
-  </si>
-  <si>
-    <t>CAME880218HJCMRR05</t>
-  </si>
-  <si>
-    <t>JEFE DE COMPENSACIONES</t>
-  </si>
-  <si>
-    <t>BRENDA INES RODRIGUEZ BAEZA</t>
-  </si>
-  <si>
-    <t>ROBB781026MJCDZR08</t>
-  </si>
-  <si>
-    <t>GERENTE DE DESARROLLO ORGANIZACIONAL</t>
-  </si>
-  <si>
-    <t>MARCELA PATRICIA RAMIREZ ARCAUTE</t>
-  </si>
-  <si>
-    <t>RAAM941104MNTMRR06</t>
-  </si>
-  <si>
-    <t>GERENTE DE PLANEACION Y ANALISIS FINANCIERO</t>
+    <t>FABIOLA JOSEFINA LOPEZ GUERRERO</t>
+  </si>
+  <si>
+    <t>LOGF820417MNTPRB09</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR DE INTELIGENCIA DE MERCADO</t>
+  </si>
+  <si>
+    <t>RICARDO COSIO CUADROS</t>
+  </si>
+  <si>
+    <t>COCR920824HJCSDC07</t>
+  </si>
+  <si>
+    <t>JEFE DE INVESTIGACION Y DESARROLLO</t>
+  </si>
+  <si>
+    <t>SILVIA PAOLINA GUILLEN MARTINEZ</t>
+  </si>
+  <si>
+    <t>GUMS821226MJCLRL01</t>
+  </si>
+  <si>
+    <t>ASISTENTE DE MARCA</t>
+  </si>
+  <si>
+    <t>PAULINA HERNANDEZ MORALES</t>
+  </si>
+  <si>
+    <t>HEMP781116MJCRRL09</t>
+  </si>
+  <si>
+    <t>GERENTE ESG</t>
+  </si>
+  <si>
+    <t>ALBERTO ALVAREZ NOVOA</t>
+  </si>
+  <si>
+    <t>AANA810818HJCLVL00</t>
+  </si>
+  <si>
+    <t>JEFE DE SANIDAD</t>
+  </si>
+  <si>
+    <t>GUADALUPE SANCHEZ BOLON</t>
+  </si>
+  <si>
+    <t>SABG831204MTCNLD05</t>
+  </si>
+  <si>
+    <t>GERENTE DE SIG</t>
+  </si>
+  <si>
+    <t>GLORIA ISABEL SANTANA OSORIO</t>
+  </si>
+  <si>
+    <t>SAOG971121MMNNSL07</t>
+  </si>
+  <si>
+    <t>COORDINADOR DE CAPACITACION</t>
+  </si>
+  <si>
+    <t>SUSANA URBAN VARGAS</t>
+  </si>
+  <si>
+    <t>UAVS791222MDFRRS02</t>
+  </si>
+  <si>
+    <t>REPRESENTANTE COMERCIAL</t>
+  </si>
+  <si>
+    <t>ALFREDO TORRES ARCEO</t>
+  </si>
+  <si>
+    <t>TOAA951211HJCRRL05</t>
+  </si>
+  <si>
+    <t>ANALISTA DE INTELIGENCIA DE NEGOCIO</t>
+  </si>
+  <si>
+    <t>JESSICA LIZETHE SOTO AVALOS</t>
+  </si>
+  <si>
+    <t>SOAJ910511MJCTVS09</t>
+  </si>
+  <si>
+    <t>ALEJANDRA ROBLES ENCISO</t>
+  </si>
+  <si>
+    <t>ROEA980825MZSBNL02</t>
+  </si>
+  <si>
+    <t>RECEPCIONISTA Y SERVICIOS GENERALES</t>
+  </si>
+  <si>
+    <t>JUAN JOSE CASILLAS DIAZ</t>
+  </si>
+  <si>
+    <t>CADJ950119HJCSZN09</t>
+  </si>
+  <si>
+    <t>ANALISTA DE MESA DE CONTROL</t>
+  </si>
+  <si>
+    <t>LISET VANESA JIMENEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JIRL920315MJCMDS09</t>
+  </si>
+  <si>
+    <t>EJECUTIVO DE ATRACCION DE TALENTO</t>
+  </si>
+  <si>
+    <t>HUMBERTO MACIAS FUENTES</t>
+  </si>
+  <si>
+    <t>MAFH891010HBCCNM05</t>
+  </si>
+  <si>
+    <t>ANALISTA DE DESARROLLO</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE MANZANO HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>MAHG820219MJCNRD04</t>
+  </si>
+  <si>
+    <t>INGENIERO DE SOPORTE</t>
+  </si>
+  <si>
+    <t>ATENCIÓN PLENA Y MANEJO DEL ESTRÉS – MINDFULNESS</t>
+  </si>
+  <si>
+    <t>RAFAEL PEREZ MORALES</t>
   </si>
 </sst>
 </file>
@@ -331,10 +280,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B71EBD-EE09-47C1-8DE4-B97C7620CDF2}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,6 +639,7 @@
     <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="10" width="20.28515625" customWidth="1"/>
     <col min="11" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" customWidth="1"/>
     <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -738,25 +692,25 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -773,34 +727,34 @@
       <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
-        <v>18</v>
+      <c r="M2" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -817,34 +771,34 @@
       <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="s">
-        <v>18</v>
+      <c r="M3" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -861,31 +815,34 @@
       <c r="L4" t="s">
         <v>16</v>
       </c>
-      <c r="M4" t="s">
-        <v>18</v>
+      <c r="M4" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -902,34 +859,34 @@
       <c r="L5" t="s">
         <v>16</v>
       </c>
-      <c r="M5" t="s">
-        <v>18</v>
+      <c r="M5" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -946,31 +903,34 @@
       <c r="L6" t="s">
         <v>16</v>
       </c>
-      <c r="M6" t="s">
-        <v>18</v>
+      <c r="M6" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -987,31 +947,34 @@
       <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
-        <v>18</v>
+      <c r="M7" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1028,31 +991,34 @@
       <c r="L8" t="s">
         <v>16</v>
       </c>
-      <c r="M8" t="s">
-        <v>18</v>
+      <c r="M8" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1069,34 +1035,34 @@
       <c r="L9" t="s">
         <v>16</v>
       </c>
-      <c r="M9" t="s">
-        <v>18</v>
+      <c r="M9" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1113,34 +1079,34 @@
       <c r="L10" t="s">
         <v>16</v>
       </c>
-      <c r="M10" t="s">
-        <v>18</v>
+      <c r="M10" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1157,34 +1123,34 @@
       <c r="L11" t="s">
         <v>16</v>
       </c>
-      <c r="M11" t="s">
-        <v>18</v>
+      <c r="M11" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1201,34 +1167,34 @@
       <c r="L12" t="s">
         <v>16</v>
       </c>
-      <c r="M12" t="s">
-        <v>18</v>
+      <c r="M12" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1245,22 +1211,25 @@
       <c r="L13" t="s">
         <v>16</v>
       </c>
-      <c r="M13" t="s">
-        <v>18</v>
+      <c r="M13" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -1269,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1286,22 +1255,25 @@
       <c r="L14" t="s">
         <v>16</v>
       </c>
-      <c r="M14" t="s">
-        <v>18</v>
+      <c r="M14" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -1310,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1327,22 +1299,25 @@
       <c r="L15" t="s">
         <v>16</v>
       </c>
-      <c r="M15" t="s">
-        <v>18</v>
+      <c r="M15" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -1351,7 +1326,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1368,223 +1343,18 @@
       <c r="L16" t="s">
         <v>16</v>
       </c>
-      <c r="M16" t="s">
-        <v>18</v>
+      <c r="M16" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17" s="1">
-        <v>45925</v>
-      </c>
-      <c r="J17" s="1">
-        <v>45925</v>
-      </c>
-      <c r="K17">
-        <v>7000</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1">
-        <v>45925</v>
-      </c>
-      <c r="J18" s="1">
-        <v>45925</v>
-      </c>
-      <c r="K18">
-        <v>7000</v>
-      </c>
-      <c r="L18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>45925</v>
-      </c>
-      <c r="J19" s="1">
-        <v>45925</v>
-      </c>
-      <c r="K19">
-        <v>7000</v>
-      </c>
-      <c r="L19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1">
-        <v>45925</v>
-      </c>
-      <c r="J20" s="1">
-        <v>45925</v>
-      </c>
-      <c r="K20">
-        <v>7000</v>
-      </c>
-      <c r="L20" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1">
-        <v>45925</v>
-      </c>
-      <c r="J21" s="1">
-        <v>45925</v>
-      </c>
-      <c r="K21">
-        <v>7000</v>
-      </c>
-      <c r="L21" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D29" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
